--- a/2024 Game Day Info/Week 9_ PORT @ MKE (Sat)/Game Day Packet PORT at MKE.xlsx
+++ b/2024 Game Day Info/Week 9_ PORT @ MKE (Sat)/Game Day Packet PORT at MKE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="132">
   <si>
     <t>Team leaders must effectively communicate with other team leaders regarding travel plans and game times prior to and on game days.</t>
   </si>
@@ -390,6 +390,9 @@
     <t>TEAM</t>
   </si>
   <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -517,9 +520,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm am/pm"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -687,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -830,9 +834,10 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -859,6 +864,8 @@
     <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -8963,523 +8970,527 @@
       <c r="A3" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="48" t="s">
+        <v>104</v>
+      </c>
       <c r="C3" s="46"/>
     </row>
     <row r="4">
       <c r="A4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="49">
+        <v>45444.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="50"/>
+      <c r="A5" s="48"/>
     </row>
     <row r="6">
-      <c r="A6" s="50" t="s">
-        <v>104</v>
+      <c r="A6" s="48" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="50" t="s">
-        <v>105</v>
+      <c r="A7" s="48" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="50" t="s">
-        <v>106</v>
+      <c r="A8" s="48" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="B10" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="E10" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="G10" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="H10" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="I10" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="J10" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="53" t="s">
+      <c r="K10" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="L10" s="52" t="s">
         <v>119</v>
       </c>
+      <c r="M10" s="52" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
     </row>
     <row r="17">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
     </row>
     <row r="18">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
     </row>
     <row r="20">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
     </row>
     <row r="21">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
     </row>
     <row r="24">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
     </row>
     <row r="26">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
     </row>
     <row r="27">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
     </row>
     <row r="28">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
     </row>
     <row r="29">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
     </row>
     <row r="32">
-      <c r="A32" s="58"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
     </row>
     <row r="34">
-      <c r="A34" s="58"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
     </row>
     <row r="35">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
     </row>
     <row r="36">
-      <c r="A36" s="58"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
     </row>
     <row r="37">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
     </row>
     <row r="38">
-      <c r="A38" s="58"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
     </row>
     <row r="39">
-      <c r="A39" s="58"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9510,17 +9521,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B3" s="22"/>
     </row>
@@ -9530,13 +9541,13 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" s="20"/>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" s="16"/>
     </row>
@@ -9546,7 +9557,7 @@
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -9563,13 +9574,13 @@
     </row>
     <row r="11">
       <c r="A11" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="22"/>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" s="22"/>
     </row>
@@ -9640,14 +9651,14 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" s="46"/>
     </row>
@@ -9655,523 +9666,523 @@
       <c r="A3" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="46"/>
     </row>
     <row r="4">
       <c r="A4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="59"/>
     </row>
     <row r="5">
-      <c r="A5" s="50"/>
+      <c r="A5" s="48"/>
     </row>
     <row r="6">
-      <c r="A6" s="50" t="s">
-        <v>130</v>
+      <c r="A6" s="48" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="50" t="s">
-        <v>105</v>
+      <c r="A7" s="48" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="50" t="s">
-        <v>106</v>
+      <c r="A8" s="48" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="B10" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="E10" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="G10" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="H10" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="I10" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="J10" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="53" t="s">
+      <c r="K10" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="L10" s="52" t="s">
         <v>119</v>
       </c>
+      <c r="M10" s="52" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
     </row>
     <row r="17">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
     </row>
     <row r="18">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
     </row>
     <row r="20">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
     </row>
     <row r="21">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
     </row>
     <row r="24">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
     </row>
     <row r="26">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
     </row>
     <row r="27">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
     </row>
     <row r="28">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
     </row>
     <row r="29">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
     </row>
     <row r="32">
-      <c r="A32" s="58"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
     </row>
     <row r="34">
-      <c r="A34" s="58"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
     </row>
     <row r="35">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
     </row>
     <row r="36">
-      <c r="A36" s="58"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
     </row>
     <row r="37">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
     </row>
     <row r="38">
-      <c r="A38" s="58"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
     </row>
     <row r="39">
-      <c r="A39" s="58"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
